--- a/diploma/data/ZHK_Moskvorechie_important.xlsx
+++ b/diploma/data/ZHK_Moskvorechie_important.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t xml:space="preserve">Количество жилых помещений</t>
   </si>
@@ -110,6 +110,12 @@
   </si>
   <si>
     <t xml:space="preserve">Количество инвалидных подъемников</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ширина</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Долгота</t>
   </si>
 </sst>
 </file>
@@ -125,6 +131,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -145,7 +152,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -190,7 +196,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -203,7 +209,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -212,6 +218,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -236,19 +246,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AD5"/>
+  <dimension ref="A1:AF5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AD3" activeCellId="0" sqref="AD3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="P1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AE2" activeCellId="0" sqref="AE2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="13.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="14.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="10" style="0" width="13.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="12.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="13.85"/>
@@ -345,6 +355,12 @@
       <c r="AD1" s="1" t="s">
         <v>29</v>
       </c>
+      <c r="AE1" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="0" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
@@ -440,12 +456,18 @@
       <c r="AD2" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="AE2" s="0" t="n">
+        <v>55.645674</v>
+      </c>
+      <c r="AF2" s="5" t="n">
+        <v>37.641503</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L4" s="5"/>
+      <c r="L4" s="6"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H5" s="6"/>
+      <c r="H5" s="7"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
